--- a/Data Spreadsheet for _Cleaning with Spreadsheets_ .xlsx
+++ b/Data Spreadsheet for _Cleaning with Spreadsheets_ .xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Planilha Final" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Planilha Original" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="34">
   <si>
     <t>Number</t>
   </si>
@@ -102,6 +103,18 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t xml:space="preserve">       Central</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Central</t>
+  </si>
+  <si>
+    <t>Pen    Set</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,6 +135,21 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,13 +159,27 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -147,15 +189,52 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1468,6 +1547,2576 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.63"/>
+    <col customWidth="1" min="2" max="2" width="16.5"/>
+    <col customWidth="1" min="3" max="6" width="12.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43471.0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="11">
+        <v>95.0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="H3" s="9">
+        <v>189.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43488.0</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H4" s="9">
+        <v>999.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43505.0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="11">
+        <v>36.0</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H5" s="9">
+        <v>179.64</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43522.0</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="11">
+        <v>27.0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H6" s="9">
+        <v>539.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43539.0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="11">
+        <v>56.0</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2.99</v>
+      </c>
+      <c r="H7" s="9">
+        <v>167.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="G8" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H8" s="9">
+        <v>299.4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43573.0</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="11">
+        <v>75.0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="H9" s="9">
+        <v>149.25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43590.0</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="11">
+        <v>90.0</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43607.0</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11">
+        <v>32.0</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="H11" s="9">
+        <v>63.68</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43624.0</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11">
+        <v>60.0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="H12" s="9">
+        <v>539.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43641.0</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="11">
+        <v>90.0</v>
+      </c>
+      <c r="G13" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H13" s="9">
+        <v>449.1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B14" s="8">
+        <v>43658.0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="H14" s="9">
+        <v>57.71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>43675.0</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="11">
+        <v>81.0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1619.19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B16" s="8">
+        <v>43692.0</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H16" s="9">
+        <v>174.65</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43709.0</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43726.0</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11">
+        <v>16.0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="H18" s="9">
+        <v>255.84</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43743.0</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="B20" s="8">
+        <v>43760.0</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="H20" s="9">
+        <v>575.36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="B21" s="8">
+        <v>43777.0</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="11">
+        <v>15.0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H21" s="9">
+        <v>299.85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="B22" s="8">
+        <v>43794.0</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="11">
+        <v>96.0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H22" s="9">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43811.0</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="11">
+        <v>67.0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="H23" s="9">
+        <v>86.43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="B24" s="8">
+        <v>43828.0</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="11">
+        <v>74.0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>15.99</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1183.26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="B25" s="8">
+        <v>43845.0</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="11">
+        <v>46.0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="H25" s="9">
+        <v>413.54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43862.0</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="11">
+        <v>87.0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>15.0</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1305.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43879.0</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H27" s="9">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43897.0</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H28" s="9">
+        <v>139.93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="B29" s="8">
+        <v>43914.0</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="11">
+        <v>50.0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H29" s="9">
+        <v>249.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="B30" s="8">
+        <v>43931.0</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="11">
+        <v>66.0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="H30" s="9">
+        <v>131.34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="8">
+        <v>43948.0</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="11">
+        <v>96.0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H31" s="9">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43965.0</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="H32" s="9">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="B33" s="8">
+        <v>43982.0</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="11">
+        <v>80.0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="H33" s="9">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="B34" s="8">
+        <v>43999.0</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="B35" s="8">
+        <v>44016.0</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="11">
+        <v>62.0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H35" s="9">
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="B36" s="8">
+        <v>44033.0</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="11">
+        <v>55.0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>12.49</v>
+      </c>
+      <c r="H36" s="9">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="B37" s="8">
+        <v>44050.0</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="11">
+        <v>42.0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>23.95</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1005.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="B38" s="8">
+        <v>44067.0</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>275.0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>825.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="B39" s="8">
+        <v>44084.0</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="11">
+        <v>7.0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="H39" s="9">
+        <v>9.03</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="B40" s="8">
+        <v>44101.0</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="11">
+        <v>76.0</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="H40" s="9">
+        <v>151.24</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="B41" s="8">
+        <v>44118.0</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="11">
+        <v>57.0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1139.43</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="B42" s="8">
+        <v>44135.0</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="11">
+        <v>14.0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="H42" s="9">
+        <v>18.06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="B43" s="8">
+        <v>44152.0</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H43" s="9">
+        <v>54.89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="B44" s="8">
+        <v>44169.0</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="11">
+        <v>94.0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>19.99</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1879.06</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="B45" s="8">
+        <v>44186.0</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="11">
+        <v>28.0</v>
+      </c>
+      <c r="G45" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H45" s="9">
+        <v>139.72</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>44.0</v>
+      </c>
+      <c r="B46" s="8">
+        <v>43471.0</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="11">
+        <v>96.0</v>
+      </c>
+      <c r="G46" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H46" s="9">
+        <v>479.04</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="B47" s="8">
+        <v>43488.0</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="11">
+        <v>53.0</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="H47" s="9">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="B48" s="8">
+        <v>43505.0</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="11">
+        <v>80.0</v>
+      </c>
+      <c r="G48" s="10">
+        <v>8.99</v>
+      </c>
+      <c r="H48" s="9">
+        <v>719.2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43522.0</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="G49" s="10">
+        <v>125.0</v>
+      </c>
+      <c r="H49" s="9">
+        <v>625.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="B50" s="8">
+        <v>43539.0</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="11">
+        <v>62.0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="H50" s="9">
+        <v>309.38</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>49.0</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43556.0</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="11">
+        <v>55.0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>12.49</v>
+      </c>
+      <c r="H51" s="9">
+        <v>686.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="9"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="9"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="9"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="9"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="9"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="12"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="9"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="9"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="9"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="9"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="9"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="12"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="9"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="9"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="12"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="9"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="9"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
+    <row r="1000"/>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>